--- a/Doc/Widgets.xlsx
+++ b/Doc/Widgets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plockmatic-my.sharepoint.com/personal/maris_dirveiks_plockmatic_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\MMMsvn\Sauka1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3005B01F-DB50-47CF-B52B-4644FA9C7329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E9AAF-0E68-4A7F-8695-B55369BDDFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20870" yWindow="150" windowWidth="20740" windowHeight="10500" xr2:uid="{C388D71D-F397-4964-82FD-DA7486FE9E27}"/>
+    <workbookView xWindow="41310" yWindow="1035" windowWidth="20730" windowHeight="10500" xr2:uid="{C388D71D-F397-4964-82FD-DA7486FE9E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>mix</t>
   </si>
@@ -62,9 +62,6 @@
     <t>scale mass</t>
   </si>
   <si>
-    <t>lable</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -98,18 +95,6 @@
     <t>page</t>
   </si>
   <si>
-    <t>out dig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in dig </t>
-  </si>
-  <si>
-    <t>in dig</t>
-  </si>
-  <si>
-    <t>freq</t>
-  </si>
-  <si>
     <t>OUT</t>
   </si>
   <si>
@@ -119,10 +104,16 @@
     <t>IN2</t>
   </si>
   <si>
-    <t>in analog</t>
-  </si>
-  <si>
     <t>leņķis</t>
+  </si>
+  <si>
+    <t>DIoutput</t>
+  </si>
+  <si>
+    <t>DIinput</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -477,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1359F778-F5D3-4FD3-80BB-9DA4CE55BD3D}">
   <dimension ref="B4:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,34 +486,34 @@
   <sheetData>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
@@ -530,21 +521,24 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -553,21 +547,24 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -576,25 +573,25 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
@@ -602,25 +599,25 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
@@ -628,31 +625,31 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -660,22 +657,22 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
@@ -683,19 +680,19 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
@@ -703,39 +700,39 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">

--- a/Doc/Widgets.xlsx
+++ b/Doc/Widgets.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\MMMsvn\Sauka1\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Qt\sauka1\sauka1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E9AAF-0E68-4A7F-8695-B55369BDDFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4863D-3269-4BC0-A0F7-F8AB359A205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41310" yWindow="1035" windowWidth="20730" windowHeight="10500" xr2:uid="{C388D71D-F397-4964-82FD-DA7486FE9E27}"/>
+    <workbookView xWindow="6615" yWindow="705" windowWidth="21600" windowHeight="11505" xr2:uid="{C388D71D-F397-4964-82FD-DA7486FE9E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>mix</t>
   </si>
@@ -468,23 +457,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1359F778-F5D3-4FD3-80BB-9DA4CE55BD3D}">
   <dimension ref="B4:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -516,7 +505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -542,7 +531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -568,7 +557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -594,7 +583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -620,7 +609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -652,7 +641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -675,7 +664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -695,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -714,8 +703,11 @@
       <c r="G13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -735,7 +727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>

--- a/Doc/Widgets.xlsx
+++ b/Doc/Widgets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Qt\sauka1\sauka1\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\MMMsvn\Sauka1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4863D-3269-4BC0-A0F7-F8AB359A205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03C69FF-CEF2-49C3-9462-CDCB6B5A5438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="705" windowWidth="21600" windowHeight="11505" xr2:uid="{C388D71D-F397-4964-82FD-DA7486FE9E27}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12204" xr2:uid="{C388D71D-F397-4964-82FD-DA7486FE9E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>IN2</t>
   </si>
   <si>
-    <t>leņķis</t>
-  </si>
-  <si>
     <t>DIoutput</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>leņķis open</t>
   </si>
 </sst>
 </file>
@@ -458,22 +458,23 @@
   <dimension ref="B4:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -505,7 +506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -525,13 +526,13 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -551,13 +552,13 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -577,13 +578,13 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -603,13 +604,13 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -629,19 +630,19 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
       <c r="K10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -664,7 +665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -684,7 +685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -704,13 +705,13 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -727,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
